--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8880" yWindow="0" windowWidth="25600" windowHeight="14900" tabRatio="500"/>
+    <workbookView xWindow="6880" yWindow="0" windowWidth="25600" windowHeight="14900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="16">
   <si>
     <t>problem</t>
   </si>
@@ -36,38 +36,54 @@
     <t>search methods</t>
   </si>
   <si>
-    <t>BFS</t>
-  </si>
-  <si>
-    <t>DFS</t>
-  </si>
-  <si>
     <t>#expansion</t>
   </si>
   <si>
     <t>#goal test</t>
   </si>
   <si>
-    <t>time elapsed</t>
-  </si>
-  <si>
     <t>#new nodes</t>
   </si>
   <si>
-    <t>plan length</t>
-  </si>
-  <si>
-    <t>UCS</t>
+    <t>time elapsed/s</t>
+  </si>
+  <si>
+    <t>plan length/optimality</t>
+  </si>
+  <si>
+    <t>breadth_first_search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">depth_first_graph_search </t>
+  </si>
+  <si>
+    <t>uniform_cost_search</t>
+  </si>
+  <si>
+    <t>astar_search h_pg_levelsum</t>
+  </si>
+  <si>
+    <t>astar_search h_ignore_preconditions</t>
+  </si>
+  <si>
+    <t>astar_search h_1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -106,26 +122,56 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -455,16 +501,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
     <col min="6" max="6" width="14.1640625" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -475,24 +523,24 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -514,183 +562,400 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>3343</v>
+        <v>12</v>
       </c>
       <c r="D3">
-        <v>4609</v>
+        <v>13</v>
       </c>
       <c r="E3">
-        <v>30509</v>
+        <v>48</v>
       </c>
       <c r="F3">
-        <v>20.757000000000001</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="G3">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1"/>
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>14663</v>
+        <v>55</v>
       </c>
       <c r="D4">
-        <v>18098</v>
+        <v>57</v>
       </c>
       <c r="E4">
-        <v>129631</v>
+        <v>224</v>
       </c>
       <c r="F4">
-        <v>149.32900000000001</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
+      <c r="A5" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <v>13</v>
       </c>
       <c r="E5">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F5">
-        <v>1.2999999999999999E-2</v>
+        <v>1.6259999999999999</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="1"/>
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>41</v>
+      </c>
+      <c r="D6">
+        <v>43</v>
+      </c>
+      <c r="E6">
+        <v>170</v>
+      </c>
+      <c r="F6">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>55</v>
+      </c>
+      <c r="D7">
+        <v>57</v>
+      </c>
+      <c r="E7">
+        <v>224</v>
+      </c>
+      <c r="F7">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C6">
-        <v>1669</v>
-      </c>
-      <c r="D6">
-        <v>1670</v>
-      </c>
-      <c r="E6">
-        <v>14863</v>
-      </c>
-      <c r="F6">
-        <v>19.251000000000001</v>
-      </c>
-      <c r="G6">
-        <v>1444</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1"/>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>592</v>
-      </c>
-      <c r="D7">
-        <v>593</v>
-      </c>
-      <c r="E7">
-        <v>4927</v>
-      </c>
-      <c r="F7">
-        <v>4.718</v>
-      </c>
-      <c r="G7">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
       <c r="C8">
-        <v>5</v>
+        <v>3343</v>
       </c>
       <c r="D8">
-        <v>57</v>
+        <v>4609</v>
       </c>
       <c r="E8">
-        <v>224</v>
+        <v>30509</v>
       </c>
       <c r="F8">
-        <v>5.0999999999999997E-2</v>
+        <v>20.757000000000001</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="1"/>
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="B9" t="s">
         <v>2</v>
       </c>
       <c r="C9">
+        <v>1669</v>
+      </c>
+      <c r="D9">
+        <v>1670</v>
+      </c>
+      <c r="E9">
+        <v>14863</v>
+      </c>
+      <c r="F9">
+        <v>19.251000000000001</v>
+      </c>
+      <c r="G9">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10">
         <v>4852</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>4854</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>44030</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>16.376999999999999</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1"/>
-      <c r="B10" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>86</v>
+      </c>
+      <c r="D11">
+        <v>88</v>
+      </c>
+      <c r="E11">
+        <v>841</v>
+      </c>
+      <c r="F11">
+        <v>127.726</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>1450</v>
+      </c>
+      <c r="D12">
+        <v>1452</v>
+      </c>
+      <c r="E12">
+        <v>13303</v>
+      </c>
+      <c r="F12">
+        <v>5.71</v>
+      </c>
+      <c r="G12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>4852</v>
+      </c>
+      <c r="D13">
+        <v>4854</v>
+      </c>
+      <c r="E13">
+        <v>44030</v>
+      </c>
+      <c r="F13">
+        <v>17.285</v>
+      </c>
+      <c r="G13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
         <v>3</v>
       </c>
-      <c r="C10">
+      <c r="C14">
+        <v>14663</v>
+      </c>
+      <c r="D14">
+        <v>18098</v>
+      </c>
+      <c r="E14">
+        <v>129631</v>
+      </c>
+      <c r="F14">
+        <v>149.32900000000001</v>
+      </c>
+      <c r="G14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>592</v>
+      </c>
+      <c r="D15">
+        <v>593</v>
+      </c>
+      <c r="E15">
+        <v>4927</v>
+      </c>
+      <c r="F15">
+        <v>4.718</v>
+      </c>
+      <c r="G15">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16">
         <v>18235</v>
       </c>
-      <c r="D10">
+      <c r="D16">
         <v>18237</v>
       </c>
-      <c r="E10">
+      <c r="E16">
         <v>159716</v>
       </c>
-      <c r="F10">
+      <c r="F16">
         <v>72.081000000000003</v>
       </c>
-      <c r="G10">
+      <c r="G16">
         <v>12</v>
       </c>
     </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>318</v>
+      </c>
+      <c r="D17">
+        <v>320</v>
+      </c>
+      <c r="E17">
+        <v>2934</v>
+      </c>
+      <c r="F17" s="1">
+        <v>609.47799999999995</v>
+      </c>
+      <c r="G17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>5040</v>
+      </c>
+      <c r="D18">
+        <v>5042</v>
+      </c>
+      <c r="E18">
+        <v>44944</v>
+      </c>
+      <c r="F18">
+        <v>21.379000000000001</v>
+      </c>
+      <c r="G18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>18235</v>
+      </c>
+      <c r="D19">
+        <v>18237</v>
+      </c>
+      <c r="E19">
+        <v>159716</v>
+      </c>
+      <c r="F19">
+        <v>85.984999999999999</v>
+      </c>
+      <c r="G19">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-  </mergeCells>
+  <sortState ref="A2:G19">
+    <sortCondition ref="B2:B19"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
